--- a/data/trans_dic/P1429-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P1429-Provincia-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.002728512760318335</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.007346805520860805</v>
+        <v>0.007346805520860807</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.02766107478175705</v>
@@ -713,31 +713,31 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.00209594417768843</v>
+        <v>0.002099819739042477</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.01212629802606275</v>
+        <v>0.01087865844196484</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.02214536893043936</v>
+        <v>0.0222722223258635</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.02270590299644817</v>
+        <v>0.0227937944550257</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.01920927241083247</v>
+        <v>0.01939589856861747</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.006119894976155096</v>
+        <v>0.005667587909047211</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.01089355294386963</v>
+        <v>0.01108643845774398</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.01319268161250177</v>
+        <v>0.01253196283714439</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.01185093072535549</v>
+        <v>0.01250438853780328</v>
       </c>
     </row>
     <row r="6">
@@ -750,34 +750,34 @@
       <c r="C6" s="5" t="inlineStr"/>
       <c r="D6" s="5" t="inlineStr"/>
       <c r="E6" s="5" t="n">
-        <v>0.01502202868179994</v>
+        <v>0.01241788731333252</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.01887766372465962</v>
+        <v>0.02136962404680942</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.05956265325731663</v>
+        <v>0.05418001309975974</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.07628538149742242</v>
+        <v>0.07412820633473793</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.07213207417694939</v>
+        <v>0.07403645596646408</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.04853737941954141</v>
+        <v>0.04823356695509583</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.02999727419041051</v>
+        <v>0.02551133759434739</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.03873341465606237</v>
+        <v>0.03994612374655834</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.03757841286777738</v>
+        <v>0.03736611095860586</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.02941999581996869</v>
+        <v>0.0300151314623757</v>
       </c>
     </row>
     <row r="7">
@@ -848,28 +848,28 @@
         <v>0</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.0490361997885665</v>
+        <v>0.05004549574155235</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.01380051499611371</v>
+        <v>0.01455505913571542</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.02003869423603975</v>
+        <v>0.02110332071250294</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.02189648735516241</v>
+        <v>0.02174811285831366</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.02574599805412536</v>
+        <v>0.0257480981396626</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.009982283364341139</v>
+        <v>0.009535646475856772</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.01054813386325672</v>
+        <v>0.01014394884814951</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.01213522149210314</v>
+        <v>0.01169064973350555</v>
       </c>
     </row>
     <row r="9">
@@ -880,40 +880,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.01092050189335689</v>
+        <v>0.01087142774922975</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.02292948099617916</v>
+        <v>0.02542531581146203</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.008126437741609663</v>
+        <v>0.007377415251667696</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.009070586582808031</v>
+        <v>0.00900844599411125</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.09272391953530072</v>
+        <v>0.09733459046628314</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.04646522129980534</v>
+        <v>0.04804445577667848</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.05720693443914164</v>
+        <v>0.05460532456982852</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.04629778911112774</v>
+        <v>0.04559711115477605</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.04963133541850084</v>
+        <v>0.05014029359613123</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.02904670578006096</v>
+        <v>0.02781739619452563</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.02839199306403787</v>
+        <v>0.02729179578292125</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.02497901448795825</v>
+        <v>0.02412733000122692</v>
       </c>
     </row>
     <row r="10">
@@ -949,7 +949,7 @@
         <v>0.01564307136388474</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.04689596551732251</v>
+        <v>0.0468959655173225</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.02193905700712456</v>
@@ -982,28 +982,28 @@
         <v>0</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.02186673021768143</v>
+        <v>0.02261550842522089</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.01456157255883143</v>
+        <v>0.01492407770124093</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.005461859522385158</v>
+        <v>0.003733197576246784</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.03209776431213129</v>
+        <v>0.03235266044142208</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.01344076387741465</v>
+        <v>0.01272152570724555</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.008005435104592527</v>
+        <v>0.008908758992220343</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.001889003831740065</v>
+        <v>0.001892209102512275</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.01832519566165303</v>
+        <v>0.0179430768028867</v>
       </c>
     </row>
     <row r="12">
@@ -1014,38 +1014,38 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.0154423377428991</v>
+        <v>0.01554694198024058</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.01567173341130597</v>
+        <v>0.01555491455678491</v>
       </c>
       <c r="E12" s="5" t="inlineStr"/>
       <c r="F12" s="5" t="n">
-        <v>0.01454406768929974</v>
+        <v>0.01441172976425426</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.06536925491344037</v>
+        <v>0.06523657593158762</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.05624308854327096</v>
+        <v>0.05517661850301528</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.04147329646807744</v>
+        <v>0.04214421896098595</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.06640943653127647</v>
+        <v>0.06591566135679099</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.0372941835165639</v>
+        <v>0.03644280430419646</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.03172302123250306</v>
+        <v>0.02952914681966176</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.02219446061046763</v>
+        <v>0.01951376078769611</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.03650274089093461</v>
+        <v>0.03699286425537056</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.06443027044072011</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.08047150950442168</v>
+        <v>0.0804715095044217</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.02019031362878929</v>
@@ -1093,7 +1093,7 @@
         <v>0.03536559867890959</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.05254581194511271</v>
+        <v>0.05254581194511269</v>
       </c>
     </row>
     <row r="14">
@@ -1109,31 +1109,31 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.007704861461111321</v>
+        <v>0.00774516869846359</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.02417807383469885</v>
+        <v>0.02409893173667677</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.05287108215387377</v>
+        <v>0.05318169367487138</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.04190239448937666</v>
+        <v>0.040519347675769</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.06246131178721714</v>
+        <v>0.06184164736148846</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.01202437295920514</v>
+        <v>0.01232603997413323</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.02672016412499422</v>
+        <v>0.02705304957886868</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.02240812713805556</v>
+        <v>0.0224352765534878</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.04106014523505953</v>
+        <v>0.03881447965017016</v>
       </c>
     </row>
     <row r="15">
@@ -1146,34 +1146,34 @@
       <c r="C15" s="5" t="inlineStr"/>
       <c r="D15" s="5" t="inlineStr"/>
       <c r="E15" s="5" t="n">
-        <v>0.0152204587921312</v>
+        <v>0.01645375184185491</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.0694098658206809</v>
+        <v>0.07799950583605374</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.06356006770995501</v>
+        <v>0.06265257474554529</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1079886870315428</v>
+        <v>0.1085495949112265</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1008333887292235</v>
+        <v>0.1028610565967192</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1071459744171994</v>
+        <v>0.105797875086782</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.03262579793427201</v>
+        <v>0.03327577223024718</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.0556380689147919</v>
+        <v>0.05679455823437592</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.05343038910860307</v>
+        <v>0.05301951660822322</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.07151237864055776</v>
+        <v>0.07059736891528119</v>
       </c>
     </row>
     <row r="16">
@@ -1209,7 +1209,7 @@
         <v>0.00988620253208307</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.04741196881073235</v>
+        <v>0.04741196881073234</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.009932435563295332</v>
@@ -1237,31 +1237,31 @@
       <c r="D17" s="5" t="inlineStr"/>
       <c r="E17" s="5" t="inlineStr"/>
       <c r="F17" s="5" t="n">
-        <v>0.002219340316486588</v>
+        <v>0.002314936176975994</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.004767726048404725</v>
+        <v>0.004737757972570157</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.01472185580354228</v>
+        <v>0.01808866230268178</v>
       </c>
       <c r="I17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.03228070751505371</v>
+        <v>0.0324394892302094</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.002764303627849658</v>
+        <v>0.002756035886569178</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.00715780152084091</v>
+        <v>0.007287001631781931</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.01980859461050609</v>
+        <v>0.01945148271476439</v>
       </c>
     </row>
     <row r="18">
@@ -1272,36 +1272,36 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.02206622021104757</v>
+        <v>0.02397308997104144</v>
       </c>
       <c r="D18" s="5" t="inlineStr"/>
       <c r="E18" s="5" t="inlineStr"/>
       <c r="F18" s="5" t="n">
-        <v>0.02136090331876488</v>
+        <v>0.02207203045337312</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.03926526921754528</v>
+        <v>0.04274387201169982</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.06945111895604687</v>
+        <v>0.06987106126677223</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.03432242325389698</v>
+        <v>0.03895233994567972</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.06826574067090439</v>
+        <v>0.06664105145182772</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.02553978758627449</v>
+        <v>0.02307229918868227</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.03273276697258877</v>
+        <v>0.03369569891691095</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.01557720034894605</v>
+        <v>0.01539577595977277</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.03972909061131945</v>
+        <v>0.03963623090314254</v>
       </c>
     </row>
     <row r="19">
@@ -1365,31 +1365,31 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.006028535675632284</v>
+        <v>0.006096333459146725</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.02278115530419958</v>
+        <v>0.02257666089343414</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.007643392075947637</v>
+        <v>0.007435619377381365</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.00804523437240867</v>
+        <v>0.01076948612930346</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.04525203561154897</v>
+        <v>0.04370689426196924</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.01055096519528071</v>
+        <v>0.01161209026006093</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.00397811140219302</v>
+        <v>0.00398729260106285</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.007514293402193273</v>
+        <v>0.007864002072116268</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.02841458188739178</v>
+        <v>0.02782268277071519</v>
       </c>
     </row>
     <row r="21">
@@ -1402,34 +1402,34 @@
       <c r="C21" s="5" t="inlineStr"/>
       <c r="D21" s="5" t="inlineStr"/>
       <c r="E21" s="5" t="n">
-        <v>0.02870914499969259</v>
+        <v>0.03357084614239342</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.03165419327269548</v>
+        <v>0.03112192119301473</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.0738745828391011</v>
+        <v>0.07150264608452683</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.04472344945256302</v>
+        <v>0.04819953731561919</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.04556753920879274</v>
+        <v>0.0484294578569077</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.08503728489505026</v>
+        <v>0.08211359398109358</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.03715188908997997</v>
+        <v>0.03697829753456962</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.02429211492358522</v>
+        <v>0.0231113782980257</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.02963710776978058</v>
+        <v>0.0310960748848679</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.05191502292956809</v>
+        <v>0.05215926711509349</v>
       </c>
     </row>
     <row r="22">
@@ -1453,7 +1453,7 @@
         <v>0.007665507169620112</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.007140184065605888</v>
+        <v>0.007140184065605886</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.03490429803245051</v>
@@ -1465,7 +1465,7 @@
         <v>0.04604697285728391</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.05645562458471495</v>
+        <v>0.05645562458471496</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.02080626618089381</v>
@@ -1477,7 +1477,7 @@
         <v>0.0273508116448343</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.03265724209069301</v>
+        <v>0.03265724209069303</v>
       </c>
     </row>
     <row r="23">
@@ -1488,40 +1488,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.00155375986336686</v>
+        <v>0.001530671198235673</v>
       </c>
       <c r="D23" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.002718765428615144</v>
+        <v>0.002760676320573861</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.002831904733180836</v>
+        <v>0.002540878967462798</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.02307599749212181</v>
+        <v>0.02219124741006296</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.03008728478237084</v>
+        <v>0.02945920965131007</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.03091360138673038</v>
+        <v>0.03040098943922571</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.04340854090258773</v>
+        <v>0.04312861344361502</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.01353689341717132</v>
+        <v>0.01365408327260601</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.01648836578315787</v>
+        <v>0.01661928759682269</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.01807234622968206</v>
+        <v>0.01890101113027508</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.02536986514285038</v>
+        <v>0.02572844881595181</v>
       </c>
     </row>
     <row r="24">
@@ -1532,40 +1532,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.01546199949292465</v>
+        <v>0.01407341078239543</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.008179336572091524</v>
+        <v>0.007962419978704139</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.0165648956074301</v>
+        <v>0.01747118913445341</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.01719965969915584</v>
+        <v>0.01473181481126694</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.05198758757207125</v>
+        <v>0.05267998486963137</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.06262225277552286</v>
+        <v>0.0611789688134425</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.06496625763694044</v>
+        <v>0.06382362501293969</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.07158608243777818</v>
+        <v>0.0721656800777658</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.02984256649790704</v>
+        <v>0.02993414423739568</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.03397213432667182</v>
+        <v>0.03345718604508464</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.03713716927806803</v>
+        <v>0.03815167092830585</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.04091469668303375</v>
+        <v>0.04153904608270882</v>
       </c>
     </row>
     <row r="25">
@@ -1624,7 +1624,7 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.02456120329337966</v>
+        <v>0.02485924022658001</v>
       </c>
       <c r="D26" s="5" t="n">
         <v>0</v>
@@ -1633,31 +1633,31 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.003511411294655321</v>
+        <v>0.003477199839762875</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.03435220813255685</v>
+        <v>0.03367753117815951</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.02378873450130217</v>
+        <v>0.02561823157448551</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.01670590531253087</v>
+        <v>0.0159171457968952</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.02539933869966876</v>
+        <v>0.02630507851470076</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.03285408958232731</v>
+        <v>0.03344552759426269</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.01297547102393197</v>
+        <v>0.01344073862679769</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.008369960239689419</v>
+        <v>0.008227948953899656</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.01660892177667366</v>
+        <v>0.01611037383578379</v>
       </c>
     </row>
     <row r="27">
@@ -1668,40 +1668,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.05273688627301591</v>
+        <v>0.05392020115412609</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.006740221607346285</v>
+        <v>0.006819884013513841</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.008032452164378466</v>
+        <v>0.005967799840997003</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.01605875551072476</v>
+        <v>0.01557617313283679</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.0650762849465867</v>
+        <v>0.06498549686902585</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.05188003995934449</v>
+        <v>0.05156372278778894</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.04119448447512568</v>
+        <v>0.03976466888314786</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.0458011380347929</v>
+        <v>0.0464938456172435</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.05346054602627862</v>
+        <v>0.05342412952046213</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.02710203092122984</v>
+        <v>0.02808144976445637</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.0216110445652193</v>
+        <v>0.02058902545292904</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.02780826979991651</v>
+        <v>0.02810244417445038</v>
       </c>
     </row>
     <row r="28">
@@ -1737,7 +1737,7 @@
         <v>0.03446511985398436</v>
       </c>
       <c r="J28" s="5" t="n">
-        <v>0.04752222791806551</v>
+        <v>0.0475222279180655</v>
       </c>
       <c r="K28" s="5" t="n">
         <v>0.02691172583257259</v>
@@ -1760,40 +1760,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.007132202488256315</v>
+        <v>0.007276042163943992</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.0006192568244538974</v>
+        <v>0.0006046514020580281</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.001872001500148256</v>
+        <v>0.001836844618927144</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.005531526574221012</v>
+        <v>0.005591106479811779</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.03652129665724761</v>
+        <v>0.03637608336102161</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.03407161122188817</v>
+        <v>0.03423517920016689</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.02867905668324969</v>
+        <v>0.02877663781306042</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.04202142501714563</v>
+        <v>0.04286162273564929</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.02335187974376615</v>
+        <v>0.02299141027019526</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.01793659854298748</v>
+        <v>0.01786669660851987</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.01583692324514779</v>
+        <v>0.01627558797859439</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.02552569029212231</v>
+        <v>0.02561622892697763</v>
       </c>
     </row>
     <row r="30">
@@ -1804,40 +1804,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.01436478432986588</v>
+        <v>0.01393444595280612</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.004663975325631471</v>
+        <v>0.004403482314042685</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.00592957333690008</v>
+        <v>0.006320363296015131</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.01270021616072682</v>
+        <v>0.01257790876100922</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.05018124486221819</v>
+        <v>0.04983772481903048</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.04705158672073516</v>
+        <v>0.0478492344442449</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.04093456380757648</v>
+        <v>0.04195886792158163</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.05325849157586324</v>
+        <v>0.0531955348669183</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.03156372192332656</v>
+        <v>0.03089810107108928</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.0250974546837845</v>
+        <v>0.02489529401307068</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.02287381985863342</v>
+        <v>0.0229389285757035</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.03168795332212235</v>
+        <v>0.03190895019707982</v>
       </c>
     </row>
     <row r="31">
@@ -2117,31 +2117,31 @@
         <v>0</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>3163</v>
+        <v>2838</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>6361</v>
+        <v>6398</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>6555</v>
+        <v>6581</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>6071</v>
+        <v>6130</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>3267</v>
+        <v>3026</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>6329</v>
+        <v>6441</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>7684</v>
+        <v>7299</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>7524</v>
+        <v>7939</v>
       </c>
     </row>
     <row r="7">
@@ -2154,34 +2154,34 @@
       <c r="C7" s="6" t="inlineStr"/>
       <c r="D7" s="6" t="inlineStr"/>
       <c r="E7" s="6" t="n">
-        <v>4413</v>
+        <v>3648</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>6019</v>
+        <v>6814</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>15536</v>
+        <v>14132</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>21913</v>
+        <v>21293</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>20825</v>
+        <v>21375</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>15341</v>
+        <v>15245</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>16014</v>
+        <v>13619</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>22503</v>
+        <v>23208</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>21888</v>
+        <v>21764</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>18679</v>
+        <v>19057</v>
       </c>
     </row>
     <row r="8">
@@ -2296,28 +2296,28 @@
         <v>0</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>24712</v>
+        <v>25220</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>7213</v>
+        <v>7607</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>10482</v>
+        <v>11039</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>11831</v>
+        <v>11751</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>25669</v>
+        <v>25671</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>10264</v>
+        <v>9804</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>10819</v>
+        <v>10404</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>12984</v>
+        <v>12509</v>
       </c>
     </row>
     <row r="11">
@@ -2328,40 +2328,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>5385</v>
+        <v>5360</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>11591</v>
+        <v>12853</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>4084</v>
+        <v>3708</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>4804</v>
+        <v>4771</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>46728</v>
+        <v>49052</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>24285</v>
+        <v>25111</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>29924</v>
+        <v>28563</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>25015</v>
+        <v>24636</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>49484</v>
+        <v>49991</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>29865</v>
+        <v>28601</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>29121</v>
+        <v>27992</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>26727</v>
+        <v>25815</v>
       </c>
     </row>
     <row r="12">
@@ -2474,28 +2474,28 @@
         <v>0</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>7334</v>
+        <v>7586</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>4966</v>
+        <v>5089</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>1837</v>
+        <v>1256</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>11439</v>
+        <v>11530</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>8794</v>
+        <v>8323</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>5324</v>
+        <v>5925</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>1237</v>
+        <v>1239</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>12310</v>
+        <v>12053</v>
       </c>
     </row>
     <row r="15">
@@ -2506,38 +2506,38 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>4924</v>
+        <v>4957</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>5078</v>
+        <v>5041</v>
       </c>
       <c r="E15" s="6" t="inlineStr"/>
       <c r="F15" s="6" t="n">
-        <v>4587</v>
+        <v>4545</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>21926</v>
+        <v>21881</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>19180</v>
+        <v>18816</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>13948</v>
+        <v>14173</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>23667</v>
+        <v>23491</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>24400</v>
+        <v>23843</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>21098</v>
+        <v>19639</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>14535</v>
+        <v>12779</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>24521</v>
+        <v>24850</v>
       </c>
     </row>
     <row r="16">
@@ -2645,31 +2645,31 @@
         <v>0</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>2875</v>
+        <v>2890</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>8981</v>
+        <v>8952</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>20564</v>
+        <v>20685</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>16228</v>
+        <v>15692</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>26356</v>
+        <v>26095</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>8779</v>
+        <v>9000</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>20386</v>
+        <v>20640</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>16968</v>
+        <v>16989</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>32647</v>
+        <v>30862</v>
       </c>
     </row>
     <row r="19">
@@ -2682,34 +2682,34 @@
       <c r="C19" s="6" t="inlineStr"/>
       <c r="D19" s="6" t="inlineStr"/>
       <c r="E19" s="6" t="n">
-        <v>5631</v>
+        <v>6087</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>25900</v>
+        <v>29105</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>23610</v>
+        <v>23273</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>42002</v>
+        <v>42220</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>39051</v>
+        <v>39836</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>45211</v>
+        <v>44643</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>23821</v>
+        <v>24296</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>42448</v>
+        <v>43330</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>40460</v>
+        <v>40149</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>56860</v>
+        <v>56132</v>
       </c>
     </row>
     <row r="20">
@@ -2817,31 +2817,31 @@
       <c r="D22" s="6" t="inlineStr"/>
       <c r="E22" s="6" t="inlineStr"/>
       <c r="F22" s="6" t="n">
-        <v>456</v>
+        <v>476</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>990</v>
+        <v>984</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>3233</v>
+        <v>3972</v>
       </c>
       <c r="I22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>7322</v>
+        <v>7358</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>3094</v>
+        <v>3150</v>
       </c>
       <c r="M22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>8567</v>
+        <v>8413</v>
       </c>
     </row>
     <row r="23">
@@ -2852,36 +2852,36 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>4486</v>
+        <v>4874</v>
       </c>
       <c r="D23" s="6" t="inlineStr"/>
       <c r="E23" s="6" t="inlineStr"/>
       <c r="F23" s="6" t="n">
-        <v>4393</v>
+        <v>4539</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>8154</v>
+        <v>8877</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>15251</v>
+        <v>15343</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>7502</v>
+        <v>8514</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>15484</v>
+        <v>15116</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>10496</v>
+        <v>9482</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>14147</v>
+        <v>14564</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>6695</v>
+        <v>6617</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>17182</v>
+        <v>17142</v>
       </c>
     </row>
     <row r="24">
@@ -2989,31 +2989,31 @@
         <v>0</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>1629</v>
+        <v>1647</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>6336</v>
+        <v>6280</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>2126</v>
+        <v>2068</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>2197</v>
+        <v>2941</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>11906</v>
+        <v>11499</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>5792</v>
+        <v>6375</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>2196</v>
+        <v>2201</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>4029</v>
+        <v>4217</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>15154</v>
+        <v>14838</v>
       </c>
     </row>
     <row r="27">
@@ -3026,34 +3026,34 @@
       <c r="C27" s="6" t="inlineStr"/>
       <c r="D27" s="6" t="inlineStr"/>
       <c r="E27" s="6" t="n">
-        <v>7554</v>
+        <v>8833</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>8553</v>
+        <v>8409</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>20548</v>
+        <v>19888</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>12437</v>
+        <v>13404</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>12445</v>
+        <v>13227</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>22373</v>
+        <v>21604</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>20395</v>
+        <v>20299</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>13411</v>
+        <v>12759</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>15893</v>
+        <v>16675</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>27687</v>
+        <v>27817</v>
       </c>
     </row>
     <row r="28">
@@ -3156,40 +3156,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>956</v>
+        <v>941</v>
       </c>
       <c r="D30" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>1785</v>
+        <v>1813</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>2023</v>
+        <v>1815</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>14728</v>
+        <v>14163</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>20876</v>
+        <v>20440</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>21370</v>
+        <v>21016</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>33247</v>
+        <v>33033</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>16965</v>
+        <v>17112</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>22369</v>
+        <v>22546</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>24359</v>
+        <v>25476</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>37553</v>
+        <v>38084</v>
       </c>
     </row>
     <row r="31">
@@ -3200,40 +3200,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>9510</v>
+        <v>8656</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>5421</v>
+        <v>5277</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>10876</v>
+        <v>11471</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>12286</v>
+        <v>10523</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>33179</v>
+        <v>33621</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>43451</v>
+        <v>42449</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>44911</v>
+        <v>44121</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>54828</v>
+        <v>55272</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>37400</v>
+        <v>37515</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>46088</v>
+        <v>45389</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>50055</v>
+        <v>51423</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>60563</v>
+        <v>61487</v>
       </c>
     </row>
     <row r="32">
@@ -3336,7 +3336,7 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>18269</v>
+        <v>18490</v>
       </c>
       <c r="D34" s="6" t="n">
         <v>0</v>
@@ -3345,31 +3345,31 @@
         <v>0</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>2802</v>
+        <v>2775</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>26915</v>
+        <v>26387</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>19568</v>
+        <v>21073</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>13802</v>
+        <v>13150</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>21063</v>
+        <v>21814</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>50178</v>
+        <v>51082</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>20783</v>
+        <v>21528</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>13432</v>
+        <v>13204</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>27028</v>
+        <v>26217</v>
       </c>
     </row>
     <row r="35">
@@ -3380,40 +3380,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>39225</v>
+        <v>40106</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>5251</v>
+        <v>5313</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>6254</v>
+        <v>4646</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>12816</v>
+        <v>12431</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>50988</v>
+        <v>50917</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>42675</v>
+        <v>42415</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>34034</v>
+        <v>32852</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>37982</v>
+        <v>38556</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>81651</v>
+        <v>81595</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>43409</v>
+        <v>44977</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>34680</v>
+        <v>33040</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>45254</v>
+        <v>45732</v>
       </c>
     </row>
     <row r="36">
@@ -3516,40 +3516,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>23369</v>
+        <v>23840</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>2121</v>
+        <v>2071</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>6354</v>
+        <v>6235</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>19500</v>
+        <v>19710</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>123413</v>
+        <v>122922</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>121090</v>
+        <v>121671</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>101654</v>
+        <v>102000</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>156312</v>
+        <v>159437</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>155424</v>
+        <v>153025</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>125193</v>
+        <v>124705</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>109891</v>
+        <v>112935</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>184936</v>
+        <v>185592</v>
       </c>
     </row>
     <row r="39">
@@ -3560,40 +3560,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>47067</v>
+        <v>45657</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>15978</v>
+        <v>15085</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>20127</v>
+        <v>21454</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>44772</v>
+        <v>44341</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>169572</v>
+        <v>168411</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>167221</v>
+        <v>170056</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>145094</v>
+        <v>148725</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>198111</v>
+        <v>197877</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>210080</v>
+        <v>205650</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>175174</v>
+        <v>173763</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>158719</v>
+        <v>159171</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>229583</v>
+        <v>231184</v>
       </c>
     </row>
     <row r="40">
